--- a/TimeCard/Content/TimeCardTemplates.xlsx
+++ b/TimeCard/Content/TimeCardTemplates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\source\repos\TimeCard\TimeCard\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDCAFF7-B71B-4E6E-A1BB-D0F65A987E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277E19BA-539D-4773-B60E-4D921C728787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="2235" windowWidth="23760" windowHeight="12615" xr2:uid="{E5B8759E-483A-4A2C-BBDA-A83D80136576}"/>
+    <workbookView xWindow="30090" yWindow="1980" windowWidth="23760" windowHeight="12615" xr2:uid="{E5B8759E-483A-4A2C-BBDA-A83D80136576}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeBook" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>TIME CARD</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>Descr.</t>
-  </si>
-  <si>
-    <t>Payment</t>
   </si>
   <si>
     <t>Rate</t>
@@ -687,6 +684,13 @@
     <xf numFmtId="166" fontId="19" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -728,13 +732,6 @@
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1221,36 +1218,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103216F5-7ECA-4628-B2CE-3F61FF9A5992}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="85"/>
+    <col min="3" max="3" width="9.140625" style="69"/>
     <col min="4" max="4" width="105.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="84" t="s">
-        <v>50</v>
+      <c r="C1" s="68" t="s">
+        <v>49</v>
       </c>
       <c r="D1" s="55" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1282,12 +1275,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="2" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="46" t="s">
@@ -1303,10 +1296,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
       <c r="F3" s="45" t="s">
@@ -1318,28 +1311,28 @@
         <v>38</v>
       </c>
       <c r="C4" s="49"/>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="71"/>
+      <c r="E4" s="73"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="72"/>
+      <c r="C5" s="74"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="70"/>
+      <c r="C6" s="72"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="70"/>
+      <c r="C7" s="72"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="50"/>
@@ -1362,7 +1355,7 @@
     <row r="11" spans="1:6" s="57" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
       <c r="B11" s="52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="52">
         <v>52</v>
@@ -1412,18 +1405,18 @@
       <c r="F15" s="67"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
     </row>
     <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1496,37 +1489,37 @@
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G2" s="3"/>
       <c r="I2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
     </row>
     <row r="3" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G3" s="5"/>
       <c r="I3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
     </row>
     <row r="5" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1536,18 +1529,18 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="80" t="s">
+      <c r="F6" s="76"/>
+      <c r="G6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="80" t="s">
+      <c r="H6" s="76"/>
+      <c r="I6" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="74"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="10"/>
       <c r="L6" s="11" t="s">
         <v>8</v>
@@ -1575,18 +1568,18 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="82" t="s">
+      <c r="F7" s="78"/>
+      <c r="G7" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="83">
+      <c r="H7" s="78"/>
+      <c r="I7" s="85">
         <v>43455</v>
       </c>
-      <c r="J7" s="76"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="17"/>
       <c r="L7" s="18" t="s">
         <v>12</v>
@@ -1597,10 +1590,10 @@
       <c r="A8" s="20"/>
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="74"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
       <c r="E9" s="23" t="s">
@@ -1624,10 +1617,10 @@
       <c r="K9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="76"/>
+      <c r="M9" s="78"/>
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
@@ -1691,10 +1684,10 @@
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="76"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="30"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32">

--- a/TimeCard/Content/TimeCardTemplates.xlsx
+++ b/TimeCard/Content/TimeCardTemplates.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\source\repos\TimeCard\TimeCard\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277E19BA-539D-4773-B60E-4D921C728787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BB62D1-2507-4F8C-9384-BA18F624F591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30090" yWindow="1980" windowWidth="23760" windowHeight="12615" xr2:uid="{E5B8759E-483A-4A2C-BBDA-A83D80136576}"/>
+    <workbookView xWindow="3570" yWindow="3270" windowWidth="23760" windowHeight="12615" activeTab="1" xr2:uid="{E5B8759E-483A-4A2C-BBDA-A83D80136576}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeBook" sheetId="3" r:id="rId1"/>
-    <sheet name="Invoice" sheetId="2" r:id="rId2"/>
-    <sheet name="TimeCard" sheetId="1" r:id="rId3"/>
+    <sheet name="Summary" sheetId="4" r:id="rId2"/>
+    <sheet name="Invoice" sheetId="2" r:id="rId3"/>
+    <sheet name="TimeCard" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>TIME CARD</t>
   </si>
@@ -184,6 +185,45 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Work Period</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Bill Type</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Starting</t>
+  </si>
+  <si>
+    <t>Paid Thru</t>
+  </si>
+  <si>
+    <t>Check Date</t>
+  </si>
+  <si>
+    <t>Check No.</t>
+  </si>
+  <si>
+    <t>Billed</t>
+  </si>
+  <si>
+    <t>Payment      Details</t>
   </si>
 </sst>
 </file>
@@ -195,7 +235,7 @@
     <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,16 +382,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -513,8 +603,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
@@ -541,8 +640,12 @@
     <xf numFmtId="166" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -639,57 +742,93 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="10" applyFill="1"/>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="15" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="10" applyFill="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="15" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="10"/>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="15" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="2" borderId="15" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="10" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="10" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="10" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left" wrapText="1"/>
@@ -733,13 +872,32 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="14">
+    <cellStyle name="Bad" xfId="12" builtinId="27" hidden="1"/>
     <cellStyle name="Currency 2" xfId="9" xr:uid="{DFE77892-464F-471F-B294-5949AFA2BB44}"/>
+    <cellStyle name="Good" xfId="11" builtinId="26" hidden="1"/>
     <cellStyle name="Heading 1 2" xfId="4" xr:uid="{C682C0C8-161A-4FF7-AD52-CB82DEAA0A3C}"/>
+    <cellStyle name="Heading 2" xfId="10" builtinId="17"/>
     <cellStyle name="Heading 3 2" xfId="7" xr:uid="{C5FA4A94-49CC-4124-B00C-A025D40E464F}"/>
     <cellStyle name="Heading 4 2" xfId="5" xr:uid="{6709FFE1-9B32-4697-9B81-B379C2DC129B}"/>
     <cellStyle name="Left Indent" xfId="6" xr:uid="{952998AA-FA50-41B1-8034-6E7AF33E3B95}"/>
+    <cellStyle name="Neutral" xfId="13" builtinId="28" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{BF0A8652-A1D3-4AA7-A309-2F3FA95FBFEA}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{C44F54C9-A74A-4001-B31C-ACFE002A94AD}"/>
@@ -1218,40 +1376,171 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103216F5-7ECA-4628-B2CE-3F61FF9A5992}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="69"/>
+    <col min="3" max="3" width="9.140625" style="65"/>
     <col min="4" max="4" width="105.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="81" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EC0102-26B9-496D-8FD1-279AC5F04544}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="66" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="66" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67"/>
+      <c r="B2" s="82"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="67"/>
+      <c r="B3" s="82"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="67"/>
+    </row>
+    <row r="5" spans="1:11" s="75" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+    </row>
+    <row r="6" spans="1:11" s="75" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="77" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="68"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="102"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="68"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="102"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8052308E-FF77-43AC-A66C-8F24CD45A667}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="4"/>
@@ -1275,12 +1564,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="46" t="s">
@@ -1296,10 +1585,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="72"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
       <c r="F3" s="45" t="s">
@@ -1311,28 +1600,28 @@
         <v>38</v>
       </c>
       <c r="C4" s="49"/>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="73"/>
+      <c r="E4" s="87"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="88"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="72"/>
+      <c r="C6" s="86"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="72"/>
+      <c r="C7" s="86"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="50"/>
@@ -1352,7 +1641,7 @@
       </c>
       <c r="C10" s="52"/>
     </row>
-    <row r="11" spans="1:6" s="57" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="54" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
       <c r="B11" s="52" t="s">
         <v>48</v>
@@ -1370,53 +1659,53 @@
     </row>
     <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51"/>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="61" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="60"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="67"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="64"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
     </row>
     <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1456,7 +1745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A31D68-65D3-4EFF-87DE-D652B124E8A1}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
@@ -1489,37 +1778,37 @@
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="K1" s="80" t="s">
+      <c r="K1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G2" s="3"/>
       <c r="I2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G3" s="5"/>
       <c r="I3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
     </row>
     <row r="5" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1529,18 +1818,18 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="82" t="s">
+      <c r="F6" s="90"/>
+      <c r="G6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="82" t="s">
+      <c r="H6" s="90"/>
+      <c r="I6" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="76"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="10"/>
       <c r="L6" s="11" t="s">
         <v>8</v>
@@ -1568,18 +1857,18 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="78"/>
-      <c r="G7" s="84" t="s">
+      <c r="F7" s="92"/>
+      <c r="G7" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="85">
+      <c r="H7" s="92"/>
+      <c r="I7" s="99">
         <v>43455</v>
       </c>
-      <c r="J7" s="78"/>
+      <c r="J7" s="92"/>
       <c r="K7" s="17"/>
       <c r="L7" s="18" t="s">
         <v>12</v>
@@ -1590,10 +1879,10 @@
       <c r="A8" s="20"/>
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
       <c r="E9" s="23" t="s">
@@ -1617,10 +1906,10 @@
       <c r="K9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="77" t="s">
+      <c r="L9" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="78"/>
+      <c r="M9" s="92"/>
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
@@ -1684,10 +1973,10 @@
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="78"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="30"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32">
